--- a/data/trans_orig/P1408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B97D92-B3E6-4BC2-8AB9-A6305CD22334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AD7FBB-9DDF-4333-9977-7BDDE9A48213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71287A96-F318-4D73-AA14-BCA4EEA4DFDC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E511C93D-851B-471F-B9BE-AA0A13814D49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="283">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>8,98%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>91,02%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,757 +164,715 @@
     <t>2,14%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>96,78%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,33%</t>
@@ -923,16 +881,13 @@
     <t>96,76%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0E0D9B-E119-4F65-8187-E52E11757CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E0F24D-A8A4-4688-9C96-7E888D10598D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2140,10 +2095,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -2152,13 +2107,13 @@
         <v>91534</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -2167,13 +2122,13 @@
         <v>227554</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2143,13 @@
         <v>3140525</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>3209</v>
@@ -2203,28 +2158,28 @@
         <v>3287664</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6285</v>
       </c>
       <c r="N18" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2221,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2280,7 +2235,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4896C5-D879-4991-B8E3-87DBCDF00C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04C1641-0AF6-4AA1-8B63-391481C413DA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2316,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2429,7 +2384,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2459,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2429,13 @@
         <v>50172</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2489,13 +2444,13 @@
         <v>31341</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -2504,13 +2459,13 @@
         <v>81513</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2480,13 @@
         <v>924471</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>1216</v>
@@ -2540,13 +2495,13 @@
         <v>1305273</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>2076</v>
@@ -2555,13 +2510,13 @@
         <v>2229744</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2590,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2680,13 +2635,13 @@
         <v>23481</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2695,13 +2650,13 @@
         <v>10167</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -2710,13 +2665,13 @@
         <v>33648</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2686,13 @@
         <v>1940476</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>1624</v>
@@ -2746,28 +2701,28 @@
         <v>1744425</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>3462</v>
       </c>
       <c r="N10" s="7">
-        <v>3684902</v>
+        <v>3684901</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,7 +2764,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2841,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2856,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2871,7 +2826,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2901,13 +2856,13 @@
         <v>960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2916,13 +2871,13 @@
         <v>960</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,10 +2892,10 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -2952,13 +2907,13 @@
         <v>457671</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>849</v>
@@ -2967,13 +2922,13 @@
         <v>938852</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,10 +3050,10 @@
         <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3107,13 +3062,13 @@
         <v>42468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -3122,13 +3077,13 @@
         <v>116121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3098,13 @@
         <v>3346129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>3251</v>
@@ -3158,28 +3113,28 @@
         <v>3507369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M18" s="7">
         <v>6387</v>
       </c>
       <c r="N18" s="7">
-        <v>6853497</v>
+        <v>6853498</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>158</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,7 +3176,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3235,7 +3190,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A83FB3C-D323-4FAC-897C-0886EF3858F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2964E9-662C-4479-B8E6-9432B014DB5E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,7 +3226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3384,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3399,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3429,13 +3384,13 @@
         <v>34222</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3444,13 +3399,13 @@
         <v>24319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3459,13 +3414,13 @@
         <v>58541</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3435,13 @@
         <v>720125</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>871</v>
@@ -3495,13 +3450,13 @@
         <v>970341</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>1598</v>
@@ -3510,13 +3465,13 @@
         <v>1690466</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3605,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3620,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3590,13 @@
         <v>28598</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3650,13 +3605,13 @@
         <v>17141</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3665,13 +3620,13 @@
         <v>45739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3641,13 @@
         <v>2047787</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>1892</v>
@@ -3701,13 +3656,13 @@
         <v>1971159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>3816</v>
@@ -3716,13 +3671,13 @@
         <v>4018946</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3826,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3796,13 @@
         <v>3661</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3856,13 +3811,13 @@
         <v>3029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3871,13 +3826,13 @@
         <v>6690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3847,13 @@
         <v>543225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -3907,13 +3862,13 @@
         <v>546111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3922,13 +3877,13 @@
         <v>1089336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4002,13 @@
         <v>66480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4062,13 +4017,13 @@
         <v>44489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -4077,13 +4032,13 @@
         <v>110969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4053,13 @@
         <v>3311138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>3286</v>
@@ -4113,13 +4068,13 @@
         <v>3487611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>6435</v>
@@ -4128,13 +4083,13 @@
         <v>6798749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,7 +4145,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6231220F-B4EE-4BCC-8D39-ED40493FACA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DB325B-2ECA-4954-BF42-2E1FDBB4E3B6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4226,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4339,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4348,13 +4303,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4369,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4339,13 @@
         <v>50626</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -4399,13 +4354,13 @@
         <v>45913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -4414,13 +4369,13 @@
         <v>96539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4390,13 @@
         <v>489937</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>1336</v>
@@ -4450,28 +4405,28 @@
         <v>784095</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M6" s="7">
         <v>1959</v>
       </c>
       <c r="N6" s="7">
-        <v>1274033</v>
+        <v>1274034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4468,7 @@
         <v>2112</v>
       </c>
       <c r="N7" s="7">
-        <v>1373334</v>
+        <v>1373335</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4545,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4560,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4569,13 +4524,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4545,13 @@
         <v>31249</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4605,13 +4560,13 @@
         <v>44361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4620,13 +4575,13 @@
         <v>75611</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,16 +4593,16 @@
         <v>1950</v>
       </c>
       <c r="D10" s="7">
-        <v>2128874</v>
+        <v>2128873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>2861</v>
@@ -4656,13 +4611,13 @@
         <v>2203267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>4811</v>
@@ -4671,13 +4626,13 @@
         <v>4332139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4644,7 @@
         <v>1990</v>
       </c>
       <c r="D11" s="7">
-        <v>2160123</v>
+        <v>2160122</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4751,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4766,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4781,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4751,13 @@
         <v>7007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4811,13 +4766,13 @@
         <v>7401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4826,13 +4781,13 @@
         <v>14408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4802,13 @@
         <v>666032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>990</v>
@@ -4862,13 +4817,13 @@
         <v>706167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1661</v>
@@ -4877,13 +4832,13 @@
         <v>1372199</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4921,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4981,13 +4936,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4957,13 @@
         <v>88883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -5017,13 +4972,13 @@
         <v>97675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -5032,13 +4987,13 @@
         <v>186558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5008,13 @@
         <v>3284842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
         <v>5187</v>
@@ -5068,13 +5023,13 @@
         <v>3693530</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>8431</v>
@@ -5083,13 +5038,13 @@
         <v>6978372</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,7 +5100,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88AD7FBB-9DDF-4333-9977-7BDDE9A48213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F504CE-3216-4765-AAFF-320DF2F6A941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E511C93D-851B-471F-B9BE-AA0A13814D49}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFEE63F2-7EB5-4C4C-9E7E-A68BD459FFA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="282">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>8,98%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>91,02%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>93,44%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,681 +164,687 @@
     <t>2,14%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>98,1%</t>
   </si>
   <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,18%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
@@ -857,9 +863,6 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>2,26%</t>
   </si>
   <si>
@@ -878,16 +881,10 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>96,76%</t>
-  </si>
-  <si>
     <t>97,35%</t>
   </si>
   <si>
     <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E0F24D-A8A4-4688-9C96-7E888D10598D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A761BC3-0FB8-431F-BDFF-EB98FD3697CF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,7 +1725,7 @@
         <v>1613</v>
       </c>
       <c r="D10" s="7">
-        <v>1657252</v>
+        <v>1657253</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1779,7 +1776,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2095,10 +2092,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>88</v>
@@ -2107,13 +2104,13 @@
         <v>91534</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>226</v>
@@ -2122,13 +2119,13 @@
         <v>227554</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,16 +2137,16 @@
         <v>3076</v>
       </c>
       <c r="D18" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>3209</v>
@@ -2158,13 +2155,13 @@
         <v>3287664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6285</v>
@@ -2173,13 +2170,13 @@
         <v>6428187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2188,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2254,7 +2251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04C1641-0AF6-4AA1-8B63-391481C413DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE0FD99-05B9-4092-ACB0-392CD2CAED2F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2271,7 +2268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2384,7 +2381,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2414,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2426,13 @@
         <v>50172</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2444,13 +2441,13 @@
         <v>31341</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -2459,13 +2456,13 @@
         <v>81513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2477,13 @@
         <v>924471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>1216</v>
@@ -2495,22 +2492,22 @@
         <v>1305273</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>2076</v>
       </c>
       <c r="N6" s="7">
-        <v>2229744</v>
+        <v>2229743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>117</v>
@@ -2558,7 +2555,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2656,7 +2653,7 @@
         <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -2665,13 +2662,13 @@
         <v>33648</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2683,13 @@
         <v>1940476</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1624</v>
@@ -2701,28 +2698,28 @@
         <v>1744425</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>3462</v>
       </c>
       <c r="N10" s="7">
-        <v>3684901</v>
+        <v>3684902</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2761,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2796,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2811,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2856,13 +2853,13 @@
         <v>960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2877,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,10 +2889,10 @@
         <v>481181</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>36</v>
@@ -2907,13 +2904,13 @@
         <v>457671</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>849</v>
@@ -2922,13 +2919,13 @@
         <v>938852</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,10 +3044,10 @@
         <v>73653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>64</v>
@@ -3065,10 +3062,10 @@
         <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -3077,13 +3074,13 @@
         <v>116121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3095,13 @@
         <v>3346129</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H18" s="7">
         <v>3251</v>
@@ -3113,28 +3110,28 @@
         <v>3507369</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M18" s="7">
         <v>6387</v>
       </c>
       <c r="N18" s="7">
-        <v>6853498</v>
+        <v>6853497</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3173,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3190,7 +3187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2964E9-662C-4479-B8E6-9432B014DB5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FC97AC-66BD-4526-8FBE-BE5E75A419A6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3226,7 +3223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3354,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3384,13 +3381,13 @@
         <v>34222</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -3399,13 +3396,13 @@
         <v>24319</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -3414,13 +3411,13 @@
         <v>58541</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3432,13 @@
         <v>720125</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>871</v>
@@ -3593,10 +3590,10 @@
         <v>181</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -3605,13 +3602,13 @@
         <v>17141</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>44</v>
@@ -3647,7 +3644,7 @@
         <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>1892</v>
@@ -3656,13 +3653,13 @@
         <v>1971159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>3816</v>
@@ -3796,13 +3793,13 @@
         <v>3661</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3829,10 +3826,10 @@
         <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3844,13 @@
         <v>543225</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>523</v>
@@ -3862,13 +3859,13 @@
         <v>546111</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -3877,13 +3874,13 @@
         <v>1089336</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3999,13 @@
         <v>66480</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4017,13 +4014,13 @@
         <v>44489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -4032,13 +4029,13 @@
         <v>110969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4050,13 @@
         <v>3311138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H18" s="7">
         <v>3286</v>
@@ -4068,13 +4065,13 @@
         <v>3487611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>6435</v>
@@ -4083,10 +4080,10 @@
         <v>6798749</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>71</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4164,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DB325B-2ECA-4954-BF42-2E1FDBB4E3B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D0BFCD-A615-4235-A27F-ED9E613AEAB0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4181,7 +4178,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4294,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4303,13 +4300,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4324,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4336,13 @@
         <v>50626</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -4354,13 +4351,13 @@
         <v>45913</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -4369,13 +4366,13 @@
         <v>96539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4387,13 @@
         <v>489937</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>1336</v>
@@ -4405,13 +4402,13 @@
         <v>784095</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>1959</v>
@@ -4420,13 +4417,13 @@
         <v>1274034</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4521,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4545,13 +4542,13 @@
         <v>31249</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>57</v>
@@ -4560,13 +4557,13 @@
         <v>44361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4575,10 +4572,10 @@
         <v>75611</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>252</v>
@@ -4596,13 +4593,13 @@
         <v>2128873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>2861</v>
@@ -4611,13 +4608,13 @@
         <v>2203267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>4811</v>
@@ -4626,13 +4623,13 @@
         <v>4332139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4736,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4748,13 @@
         <v>7007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -4766,13 +4763,13 @@
         <v>7401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -4781,13 +4778,13 @@
         <v>14408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4799,13 @@
         <v>666032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>990</v>
@@ -4817,13 +4814,13 @@
         <v>706167</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>1661</v>
@@ -4832,13 +4829,13 @@
         <v>1372199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4918,7 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -4942,7 +4939,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4954,13 @@
         <v>88883</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -4972,13 +4969,13 @@
         <v>97675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -4987,13 +4984,13 @@
         <v>186558</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5005,13 @@
         <v>3284842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H18" s="7">
         <v>5187</v>
@@ -5023,13 +5020,13 @@
         <v>3693530</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>8431</v>
@@ -5044,7 +5041,7 @@
         <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5097,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EBF9E1B-B80A-410C-A358-BDA5D0411C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DDAB8FB-2FB1-45E6-AA32-E26C812F6E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37DE1D6C-D934-4C55-A504-82104B438F55}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68243AAA-90C0-48F9-9A25-F712EF3E4FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="264">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -683,16 +683,16 @@
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -701,25 +701,25 @@
     <t>6,8%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>93,2%</t>
@@ -728,133 +728,109 @@
     <t>95,58%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323786A2-1CC4-4646-A128-A2CE35C25998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECE57D0-D0EF-4A36-96F3-B93CB9428DF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1468,7 +1444,7 @@
         <v>2175</v>
       </c>
       <c r="N5" s="7">
-        <v>2192813</v>
+        <v>2192812</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1519,7 +1495,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1593,7 +1569,7 @@
         <v>1613</v>
       </c>
       <c r="D8" s="7">
-        <v>1657252</v>
+        <v>1657253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1644,7 +1620,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1903,7 +1879,7 @@
         <v>3076</v>
       </c>
       <c r="D14" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1918,7 +1894,7 @@
         <v>3209</v>
       </c>
       <c r="I14" s="7">
-        <v>3287664</v>
+        <v>3287663</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1933,7 +1909,7 @@
         <v>6285</v>
       </c>
       <c r="N14" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1954,7 +1930,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1969,7 +1945,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1984,7 +1960,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2017,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB64507-8132-4394-8B82-556500F82501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898532C6-7C96-450C-96C1-D6BE7B25B6C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2374,7 +2350,7 @@
         <v>3462</v>
       </c>
       <c r="N8" s="7">
-        <v>3684902</v>
+        <v>3684901</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>122</v>
@@ -2425,7 +2401,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2529,7 +2505,7 @@
         <v>849</v>
       </c>
       <c r="N11" s="7">
-        <v>938852</v>
+        <v>938853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2580,7 +2556,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2684,7 +2660,7 @@
         <v>6387</v>
       </c>
       <c r="N14" s="7">
-        <v>6853497</v>
+        <v>6853498</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>145</v>
@@ -2735,7 +2711,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2768,7 +2744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD97AD8A-E16E-4C56-84EB-7C9B22F9BC44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB32E8C-CCAF-4B5B-9A0E-79191478C41A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3280,7 +3256,7 @@
         <v>1021</v>
       </c>
       <c r="N11" s="7">
-        <v>1089336</v>
+        <v>1089337</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>198</v>
@@ -3331,7 +3307,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3519,7 +3495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D26B7D6-EC79-432B-BD8B-E0B8412FB4AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CF62B1-86A7-40A8-9179-D21CB8BC19C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3640,7 +3616,7 @@
         <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>50626</v>
+        <v>47882</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>214</v>
@@ -3655,7 +3631,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="7">
-        <v>45913</v>
+        <v>41649</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>217</v>
@@ -3670,7 +3646,7 @@
         <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>96539</v>
+        <v>89531</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>220</v>
@@ -3691,7 +3667,7 @@
         <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>489937</v>
+        <v>466060</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>223</v>
@@ -3706,7 +3682,7 @@
         <v>1336</v>
       </c>
       <c r="I5" s="7">
-        <v>784096</v>
+        <v>708624</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>226</v>
@@ -3721,7 +3697,7 @@
         <v>1959</v>
       </c>
       <c r="N5" s="7">
-        <v>1274033</v>
+        <v>1174684</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3718,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3757,7 +3733,7 @@
         <v>1421</v>
       </c>
       <c r="I6" s="7">
-        <v>830009</v>
+        <v>750273</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3748,7 @@
         <v>2111</v>
       </c>
       <c r="N6" s="7">
-        <v>1370572</v>
+        <v>1264215</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3795,25 +3771,25 @@
         <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>31249</v>
+        <v>29289</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>44361</v>
+        <v>39999</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>235</v>
@@ -3825,16 +3801,16 @@
         <v>97</v>
       </c>
       <c r="N7" s="7">
-        <v>75611</v>
+        <v>69288</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,46 +3822,46 @@
         <v>1950</v>
       </c>
       <c r="D8" s="7">
-        <v>2128874</v>
+        <v>2259243</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>2861</v>
       </c>
       <c r="I8" s="7">
-        <v>2203267</v>
+        <v>2196078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4811</v>
       </c>
       <c r="N8" s="7">
-        <v>4332139</v>
+        <v>4455321</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3873,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2160123</v>
+        <v>2288532</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3912,7 +3888,7 @@
         <v>2918</v>
       </c>
       <c r="I9" s="7">
-        <v>2247628</v>
+        <v>2236077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3927,7 +3903,7 @@
         <v>4908</v>
       </c>
       <c r="N9" s="7">
-        <v>4407750</v>
+        <v>4524609</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3950,46 +3926,46 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>7007</v>
+        <v>6520</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>7401</v>
+        <v>6922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>14408</v>
+        <v>13443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,46 +3977,46 @@
         <v>671</v>
       </c>
       <c r="D11" s="7">
-        <v>666032</v>
+        <v>640103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>990</v>
       </c>
       <c r="I11" s="7">
-        <v>706167</v>
+        <v>653221</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>1661</v>
       </c>
       <c r="N11" s="7">
-        <v>1372199</v>
+        <v>1293323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4028,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4067,7 +4043,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713568</v>
+        <v>660143</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4082,7 +4058,7 @@
         <v>1683</v>
       </c>
       <c r="N12" s="7">
-        <v>1386607</v>
+        <v>1306766</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4105,46 +4081,46 @@
         <v>117</v>
       </c>
       <c r="D13" s="7">
-        <v>88883</v>
+        <v>83692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>154</v>
       </c>
       <c r="I13" s="7">
-        <v>97675</v>
+        <v>88570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>271</v>
       </c>
       <c r="N13" s="7">
-        <v>186558</v>
+        <v>172262</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,46 +4132,46 @@
         <v>3244</v>
       </c>
       <c r="D14" s="7">
-        <v>3284842</v>
+        <v>3365405</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>5187</v>
       </c>
       <c r="I14" s="7">
-        <v>3693530</v>
+        <v>3557923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>8431</v>
       </c>
       <c r="N14" s="7">
-        <v>6978372</v>
+        <v>6923329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4183,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373725</v>
+        <v>3449097</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4222,7 +4198,7 @@
         <v>5341</v>
       </c>
       <c r="I15" s="7">
-        <v>3791205</v>
+        <v>3646493</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4237,7 +4213,7 @@
         <v>8702</v>
       </c>
       <c r="N15" s="7">
-        <v>7164930</v>
+        <v>7095591</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
